--- a/message_1_WillsData.xlsx
+++ b/message_1_WillsData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>last_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ip_address</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>car_VIN</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>credit_card</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>street_address</t>
+          <t>...................SELLING FULLZ+DL IN BULKS................</t>
         </is>
       </c>
     </row>
@@ -486,47 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wake</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Boyer</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>wboyer0@comsenz.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Genderfluid</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>166.235.163.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1FMJK1F54CE717248</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Pābna</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>6378735588715724</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>703 Grasskamp Hill</t>
+          <t>['..............500+', 'mix', 'states', 'fullz+dl', '50', 'dolars.............']</t>
         </is>
       </c>
     </row>
@@ -536,47 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loralyn</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Frosch</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>lfrosch1@yelp.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>183.44.31.130</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3GYT4LEF6DG030714</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Bandong</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3582272160827684</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>88 Glacier Hill Trail</t>
+          <t>['..............1000+', 'mix', 'states', 'fullz+dl', '80', 'dolars............']</t>
         </is>
       </c>
     </row>
@@ -586,47 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wilma</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Gallear</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>wgallear2@elpais.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>141.123.159.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>WAUEH98E37A637338</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Fatikchari</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>374622254579260</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>4 Dakota Circle</t>
+          <t>['..............2500+', 'mix', 'states', 'fullz+dl', '150', 'dolars...........']</t>
         </is>
       </c>
     </row>
@@ -636,47 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carrol</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Restall</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>crestall3@geocities.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Polygender</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>137.133.136.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5GAKRCKDXDJ683584</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Wat Bot</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5291521566426187</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2 Bellgrove Park</t>
+          <t>['..............5000+', 'mix', 'states', 'fullz+dl', '250', 'dolars...........']</t>
         </is>
       </c>
     </row>
@@ -686,47 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trever</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Stanbro</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>tstanbro4@redcross.org</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>177.30.133.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1FTWW3B52AE519183</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Despotovac</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5100175401242910</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>31 1st Street</t>
+          <t>['..............Contact', 'Telegram', '@elkurdo33']</t>
         </is>
       </c>
     </row>
@@ -736,47 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lulita</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Elders</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>lelders5@addthis.com</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Genderqueer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.220.246.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1N6AA0EDXFN418085</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Recreio</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3572091021253795</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>57650 International Alley</t>
+          <t>['322']</t>
         </is>
       </c>
     </row>
@@ -786,147 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Debera</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Prozescky</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>dprozescky6@bbb.org</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Agender</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>79.220.188.126</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1FTNF2B5XAE176449</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Dobrošte</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3549699324357483</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5384 Truax Center</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Daisie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Durtnell</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ddurtnell7@i2i.jp</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Polygender</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>29.0.176.204</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1G6D25EY2B0267752</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Petrovskoye</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4026128454750945</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>36974 Randy Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Noah</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Vahl</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nvahl8@tmall.com</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.76.232.118</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1GKS2FEJ7CR249732</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Longquan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>5602229445437987</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>6 Bunting Drive</t>
+          <t>['11:58']</t>
         </is>
       </c>
     </row>
